--- a/Mifos Automation Excels/Client/3023-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-ONTIME-SPEDUEDATE-FEE-%APRAMT-Regular-CASH-Makerepayment2.xlsx
+++ b/Mifos Automation Excels/Client/3023-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-ONTIME-SPEDUEDATE-FEE-%APRAMT-Regular-CASH-Makerepayment2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" tabRatio="758" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" tabRatio="758" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="5" r:id="rId1"/>
@@ -158,12 +158,6 @@
     <t>$ 50.96</t>
   </si>
   <si>
-    <t>$ 100</t>
-  </si>
-  <si>
-    <t>$ 987.72</t>
-  </si>
-  <si>
     <t>$ 849.4</t>
   </si>
   <si>
@@ -186,12 +180,21 @@
   </si>
   <si>
     <t>Loan Balance</t>
+  </si>
+  <si>
+    <t>$ 50</t>
+  </si>
+  <si>
+    <t>$ 937.72</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -292,7 +295,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -326,6 +329,12 @@
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -789,7 +798,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
@@ -1464,7 +1473,7 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:G2"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1484,7 +1493,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>20</v>
@@ -1493,13 +1502,13 @@
         <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>7</v>
@@ -1511,7 +1520,7 @@
         <v>9</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -1755,10 +1764,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1770,7 +1779,8 @@
     <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -1876,8 +1886,8 @@
       <c r="G4" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="I4" s="14" t="s">
-        <v>45</v>
+      <c r="I4" s="18" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1902,12 +1912,16 @@
       <c r="G5" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="14" t="s">
-        <v>46</v>
-      </c>
+      <c r="H5" s="18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I6" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2023,8 +2037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2093,7 +2107,7 @@
         <v>33</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -2119,7 +2133,7 @@
         <v>36</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -2145,7 +2159,7 @@
         <v>32</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
